--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2573653.805545909</v>
+        <v>-2576252.60051657</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>347.4750445620894</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>1.50612936357885</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -716,13 +716,13 @@
         <v>250.9999258468059</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>37.69069145970126</v>
+        <v>89.9039426608057</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>19.91189527285533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.5863979927142</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2132921354687</v>
+        <v>141.1671541305711</v>
       </c>
       <c r="V4" t="n">
-        <v>134.2237135812944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>284.778152397483</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>163.2559146653817</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>99.21970892729125</v>
+        <v>86.89175208173802</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>217.1149800306807</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>329.7760087079228</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>64.38411577531528</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.6825092905025</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74993283584231</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016452</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260343</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>101.1527559011483</v>
       </c>
       <c r="V16" t="n">
-        <v>69.18922512558622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>103.5531674807551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>107.1685137621102</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>78.91051008678096</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>272.3541281070324</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>219.6739364530935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.2147151485303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261727</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972035</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352477</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3898,22 +3898,22 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.9811888265258</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4183,13 +4183,13 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.586704372505</v>
+        <v>2295.115349977154</v>
       </c>
       <c r="C2" t="n">
-        <v>1221.624187432093</v>
+        <v>1926.152833036742</v>
       </c>
       <c r="D2" t="n">
-        <v>863.3584888253426</v>
+        <v>1575.167939539682</v>
       </c>
       <c r="E2" t="n">
-        <v>477.5702362270986</v>
+        <v>1189.379686941437</v>
       </c>
       <c r="F2" t="n">
-        <v>66.58433143749107</v>
+        <v>778.3937821518298</v>
       </c>
       <c r="G2" t="n">
-        <v>66.58433143749107</v>
+        <v>363.2613081596554</v>
       </c>
       <c r="H2" t="n">
-        <v>66.58433143749107</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731313</v>
+        <v>248.9490509731304</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032917</v>
+        <v>575.2851091032908</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679884</v>
+        <v>1017.035607679882</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999099</v>
+        <v>1540.237590999096</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778082</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854075</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302313</v>
+        <v>2955.894353302309</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704725</v>
+        <v>3197.827805704722</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299843</v>
+        <v>3253.149432299841</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637408</v>
+        <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674415</v>
+        <v>2935.250468674412</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041277</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697707</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="W2" t="n">
-        <v>2350.652302697707</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.186544436627</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.186544436627</v>
+        <v>2681.715190041275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1626.917666771054</v>
+        <v>941.5427451404067</v>
       </c>
       <c r="C3" t="n">
-        <v>1452.464637489928</v>
+        <v>767.0897158592797</v>
       </c>
       <c r="D3" t="n">
-        <v>1303.530227828676</v>
+        <v>618.1553061980285</v>
       </c>
       <c r="E3" t="n">
-        <v>1144.292772823221</v>
+        <v>458.917851192573</v>
       </c>
       <c r="F3" t="n">
-        <v>997.7582148501058</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>861.3629990985246</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836745</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555379</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749455</v>
+        <v>155.7664206654043</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151132</v>
+        <v>388.9478577415904</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831875</v>
+        <v>748.8116174223335</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.22809887459</v>
+        <v>1188.112519465048</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529492</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.036856668789</v>
+        <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234325</v>
+        <v>2361.410240824782</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299843</v>
+        <v>2515.033852890299</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515482</v>
+        <v>2515.033852890299</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.97667611824</v>
+        <v>2384.999433493057</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.20422745452</v>
+        <v>2192.226984829337</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721553</v>
+        <v>1964.157025096371</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.982159489811</v>
+        <v>1729.004916864628</v>
       </c>
       <c r="W3" t="n">
-        <v>2210.744802761609</v>
+        <v>1474.767560136426</v>
       </c>
       <c r="X3" t="n">
-        <v>2002.893302556076</v>
+        <v>1266.916059930894</v>
       </c>
       <c r="Y3" t="n">
-        <v>1795.133003791123</v>
+        <v>1109.758082160475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599685</v>
+        <v>528.8022126542072</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599685</v>
+        <v>359.8660297263003</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599685</v>
+        <v>359.8660297263003</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599685</v>
+        <v>211.9529361439072</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599681</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274264</v>
+        <v>75.02005212274263</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>170.2650045033532</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633495</v>
+        <v>322.0515495633492</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992788</v>
+        <v>485.3474622992783</v>
       </c>
       <c r="N4" t="n">
-        <v>652.618089120607</v>
+        <v>652.6180891206063</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079671</v>
+        <v>786.8064976079662</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983277</v>
+        <v>882.5658916983271</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.276954652979</v>
+        <v>893.2769546529779</v>
       </c>
       <c r="R4" t="n">
-        <v>893.276954652979</v>
+        <v>893.2769546529779</v>
       </c>
       <c r="S4" t="n">
-        <v>893.276954652979</v>
+        <v>893.2769546529779</v>
       </c>
       <c r="T4" t="n">
-        <v>671.3952976345832</v>
+        <v>671.3952976345821</v>
       </c>
       <c r="U4" t="n">
-        <v>382.2909621442108</v>
+        <v>528.8022126542072</v>
       </c>
       <c r="V4" t="n">
-        <v>246.7114534762366</v>
+        <v>528.8022126542072</v>
       </c>
       <c r="W4" t="n">
-        <v>246.7114534762366</v>
+        <v>528.8022126542072</v>
       </c>
       <c r="X4" t="n">
-        <v>246.7114534762366</v>
+        <v>528.8022126542072</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.7114534762366</v>
+        <v>528.8022126542072</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818183</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211432</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>765.152720613188</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>354.1668158235804</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2701.192632958762</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2327.726874697682</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757124</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757124</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>576.3720603698256</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>476.1501321604405</v>
+        <v>611.3509438405008</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1605812624231</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>383.3613929424835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>731.582875291813</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>345.7946226935688</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>338.8491219443653</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>327.8170758297659</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>228.8722539929444</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>228.8722539929444</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>398.2772206747588</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>398.2772206747588</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>398.2772206747588</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X10" t="n">
-        <v>398.2772206747588</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>376.7853475753375</v>
       </c>
     </row>
     <row r="11">
@@ -5033,28 +5033,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816182</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>793.6995478537115</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>643.5829084413757</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>495.6698148589826</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511906</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,13 +5437,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038335</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>882.4027913158624</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,7 +5604,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.832398530834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1361.415228493873</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,10 +6078,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>800.6374272687976</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.485192177546</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1203.078471242568</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>982.2858920990374</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190824</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6403,22 +6403,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6555,7 +6555,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6610,22 +6610,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6874,34 +6874,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,16 +7014,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
         <v>2129.438138565707</v>
@@ -7087,10 +7087,10 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7500,16 +7500,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.207997058593548</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9811492522526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2163363185219</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>42.36172870205011</v>
+        <v>43.86785806562906</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.21325120110443</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.116953416516793</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>50.09629778459018</v>
       </c>
     </row>
     <row r="4">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>97.15402040370431</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>90.13067551456435</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203903</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>145.0461380048976</v>
       </c>
       <c r="V4" t="n">
-        <v>117.9139297425336</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6711151870889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>20.61870490125395</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>185.0317184880953</v>
       </c>
       <c r="V16" t="n">
-        <v>182.9484181982418</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>148.5844758430729</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>179.3544845744808</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>69.7049629314314</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>13.83034628221179</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>66.5105379361506</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071832</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1308430.533701948</v>
+        <v>1308430.533701947</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833833</v>
+        <v>19312.30676833927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097968</v>
+        <v>232219.4755097966</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940832</v>
+        <v>4661.989000940882</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363171</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859741998</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186735</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496083</v>
@@ -26454,7 +26454,7 @@
         <v>22817.55530496083</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106510.3641235036</v>
+        <v>106510.3641235035</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597296</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.9471871771</v>
+        <v>-200316.947187178</v>
       </c>
       <c r="D6" t="n">
-        <v>-181004.6404188388</v>
+        <v>-181004.6404188387</v>
       </c>
       <c r="E6" t="n">
-        <v>-421183.0226808795</v>
+        <v>-421217.7606063152</v>
       </c>
       <c r="F6" t="n">
-        <v>-95770.56087352431</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="G6" t="n">
-        <v>-95770.56087352431</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="H6" t="n">
-        <v>-95770.56087352433</v>
+        <v>-95805.29879896004</v>
       </c>
       <c r="I6" t="n">
-        <v>-95770.56087352431</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="J6" t="n">
-        <v>-337675.1024220659</v>
+        <v>-337675.1024220657</v>
       </c>
       <c r="K6" t="n">
         <v>-110117.61591321</v>
@@ -26558,10 +26558,10 @@
         <v>-105455.6269122691</v>
       </c>
       <c r="O6" t="n">
-        <v>-124883.3449059009</v>
+        <v>-124883.3449059008</v>
       </c>
       <c r="P6" t="n">
-        <v>-105455.6269122691</v>
+        <v>-105455.6269122692</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749601</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128048</v>
+        <v>14.78162020128138</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749601</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749601</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749601</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733205</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>126.1435732559704</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>164.4963438047533</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>187.3032894092997</v>
+        <v>199.631246254853</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>77.49278435663979</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>39.95509197054628</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>101.6416924837129</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>47.52932891511034</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882477</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724518</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047768</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.789401826822</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946374</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.979039794827</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648632</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167781</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277405</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878292</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233504</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182916</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043453</v>
       </c>
       <c r="T2" t="n">
-        <v>18.91775262076806</v>
+        <v>18.91775262076805</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305981</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145093</v>
       </c>
       <c r="H3" t="n">
-        <v>22.33150157569078</v>
+        <v>22.33150157569077</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714467</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690986</v>
+        <v>218.4572549690985</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018197</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321397</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136491</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.378615775153</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851485</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764871</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087668</v>
+        <v>295.1571398087667</v>
       </c>
       <c r="R3" t="n">
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056782</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738331</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1521219453384931</v>
+        <v>0.152121945338493</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739702</v>
       </c>
       <c r="H4" t="n">
-        <v>17.23516702661301</v>
+        <v>17.235167026613</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.29645452355398</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660827</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475335</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776859</v>
+        <v>296.6457735776858</v>
       </c>
       <c r="O4" t="n">
-        <v>274.000385408772</v>
+        <v>274.0003854087719</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464817</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391945</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260514</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.7830421165819</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069636</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32248,7 +32248,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236507</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496632</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107746</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>338.1920576279222</v>
+        <v>379.4203056753693</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34220,7 +34220,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4703354763103</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001357</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.6323819496568</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248398</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375905</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201873</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060537</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.2167984325596</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.3772246489009</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.88043090415948</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243181</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274607</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522655</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916308</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918197</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.547700140704</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.5646096621569</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227453</v>
+        <v>155.1753657227451</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.05763987550084</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667727</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848444</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999286</v>
+        <v>164.9453663999284</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124527</v>
+        <v>168.9602291124526</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569291</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733413</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.8192555097487</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096343</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>228.3679864663302</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36680,13 +36680,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663299</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663302</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>196.0580237059039</v>
+        <v>237.286271753351</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>508.128623392977</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
